--- a/RNN/Data/Optimised_Networks/avg_mse_direct_prediction 1_15_15_0.001_8.xlsx
+++ b/RNN/Data/Optimised_Networks/avg_mse_direct_prediction 1_15_15_0.001_8.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01723101548850536</v>
+        <v>0.01688472740352154</v>
       </c>
     </row>
     <row r="3">
